--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="136">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,19 +43,19 @@
     <t>poorly</t>
   </si>
   <si>
-    <t>defective</t>
-  </si>
-  <si>
     <t>disappointing</t>
   </si>
   <si>
     <t>useless</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>stopped</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>difficult</t>
   </si>
   <si>
     <t>returned</t>
@@ -64,355 +64,361 @@
     <t>however</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>difficult</t>
+    <t>broke</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>broke</t>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>loves</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>baking</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>peel</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>purchased</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>handle</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>item</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>loves</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>fan</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>ox</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>easily</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>purchased</t>
-  </si>
-  <si>
-    <t>pot</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>say</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
     <t>product</t>
-  </si>
-  <si>
-    <t>would</t>
   </si>
   <si>
     <t>positive</t>
@@ -773,7 +779,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q114"/>
+  <dimension ref="A1:Q117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -781,10 +787,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -842,13 +848,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -860,19 +866,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K3">
-        <v>0.978494623655914</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L3">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M3">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -884,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -892,13 +898,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7391304347826086</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -910,19 +916,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K4">
-        <v>0.8828125</v>
+        <v>0.890625</v>
       </c>
       <c r="L4">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M4">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -934,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -942,13 +948,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -960,31 +966,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="L5">
+        <v>60</v>
+      </c>
+      <c r="M5">
+        <v>60</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>9</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5">
-        <v>0.8513931888544891</v>
-      </c>
-      <c r="L5">
-        <v>550</v>
-      </c>
-      <c r="M5">
-        <v>550</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -992,37 +998,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.575</v>
+        <v>0.4263565891472868</v>
       </c>
       <c r="C6">
+        <v>55</v>
+      </c>
+      <c r="D6">
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>74</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6">
-        <v>23</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>17</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K6">
-        <v>0.8405797101449275</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L6">
-        <v>58</v>
+        <v>544</v>
       </c>
       <c r="M6">
-        <v>58</v>
+        <v>544</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1034,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1042,13 +1048,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4339622641509434</v>
+        <v>0.3773584905660378</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1060,19 +1066,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K7">
-        <v>0.7864406779661017</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="L7">
-        <v>232</v>
+        <v>171</v>
       </c>
       <c r="M7">
-        <v>232</v>
+        <v>171</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1084,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1092,13 +1098,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3953488372093023</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C8">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1110,19 +1116,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K8">
-        <v>0.7608695652173914</v>
+        <v>0.7186440677966102</v>
       </c>
       <c r="L8">
-        <v>35</v>
+        <v>212</v>
       </c>
       <c r="M8">
-        <v>35</v>
+        <v>212</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1134,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1142,13 +1148,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3636363636363636</v>
+        <v>0.2929292929292929</v>
       </c>
       <c r="C9">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1160,19 +1166,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K9">
-        <v>0.7402597402597403</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L9">
-        <v>171</v>
+        <v>55</v>
       </c>
       <c r="M9">
-        <v>171</v>
+        <v>55</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1184,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1192,37 +1198,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3636363636363636</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K10">
-        <v>0.7241379310344828</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1234,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1242,13 +1248,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.32</v>
+        <v>0.227027027027027</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1260,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K11">
-        <v>0.7123287671232876</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="L11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1284,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1292,13 +1298,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2794117647058824</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1310,19 +1316,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K12">
-        <v>0.7012987012987013</v>
+        <v>0.666131621187801</v>
       </c>
       <c r="L12">
-        <v>54</v>
+        <v>830</v>
       </c>
       <c r="M12">
-        <v>54</v>
+        <v>830</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1334,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>23</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1342,13 +1348,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.2111111111111111</v>
+        <v>0.1553398058252427</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1360,119 +1366,71 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="L13">
+        <v>28</v>
+      </c>
+      <c r="M13">
+        <v>28</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="L14">
+        <v>36</v>
+      </c>
+      <c r="M14">
+        <v>36</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K13">
-        <v>0.6875</v>
-      </c>
-      <c r="L13">
-        <v>44</v>
-      </c>
-      <c r="M13">
-        <v>44</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.1891891891891892</v>
-      </c>
-      <c r="C14">
-        <v>35</v>
-      </c>
-      <c r="D14">
-        <v>35</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>150</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14">
-        <v>0.6789727126805778</v>
-      </c>
-      <c r="L14">
-        <v>846</v>
-      </c>
-      <c r="M14">
-        <v>846</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.0423728813559322</v>
-      </c>
-      <c r="C15">
-        <v>15</v>
-      </c>
-      <c r="D15">
-        <v>32</v>
-      </c>
-      <c r="E15">
-        <v>0.53</v>
-      </c>
-      <c r="F15">
-        <v>0.47</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>339</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="K15">
-        <v>0.6458333333333334</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L15">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M15">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1484,21 +1442,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K16">
-        <v>0.6457142857142857</v>
+        <v>0.6304347826086957</v>
       </c>
       <c r="L16">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="M16">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1510,21 +1468,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>62</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K17">
-        <v>0.6444444444444445</v>
+        <v>0.6265060240963856</v>
       </c>
       <c r="L17">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="M17">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1536,21 +1494,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K18">
-        <v>0.6338028169014085</v>
+        <v>0.609375</v>
       </c>
       <c r="L18">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M18">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1562,21 +1520,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K19">
-        <v>0.6176470588235294</v>
+        <v>0.6057142857142858</v>
       </c>
       <c r="L19">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="M19">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1588,21 +1546,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>26</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K20">
-        <v>0.6153846153846154</v>
+        <v>0.6</v>
       </c>
       <c r="L20">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M20">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1614,21 +1572,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K21">
-        <v>0.5972222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="L21">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1640,21 +1598,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22">
+        <v>0.5774647887323944</v>
+      </c>
+      <c r="L22">
         <v>41</v>
       </c>
-      <c r="K22">
-        <v>0.5868263473053892</v>
-      </c>
-      <c r="L22">
-        <v>98</v>
-      </c>
       <c r="M22">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1666,21 +1624,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>69</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K23">
-        <v>0.5789473684210527</v>
+        <v>0.5568862275449101</v>
       </c>
       <c r="L23">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="M23">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1692,21 +1650,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>24</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>0.5673076923076923</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="L24">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M24">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1718,21 +1676,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K25">
-        <v>0.5299145299145299</v>
+        <v>0.5470085470085471</v>
       </c>
       <c r="L25">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M25">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1744,21 +1702,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K26">
-        <v>0.5285714285714286</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L26">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1770,21 +1728,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K27">
-        <v>0.5180722891566265</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="L27">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M27">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1796,21 +1754,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>0.5112781954887218</v>
+        <v>0.5</v>
       </c>
       <c r="L28">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="M28">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1822,21 +1780,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K29">
         <v>0.5</v>
       </c>
       <c r="L29">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M29">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1848,47 +1806,47 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>0.4939024390243902</v>
+        <v>0.4887218045112782</v>
       </c>
       <c r="L30">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="M30">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="N30">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K31">
-        <v>0.4918032786885246</v>
+        <v>0.45</v>
       </c>
       <c r="L31">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M31">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1900,21 +1858,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>0.49</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L32">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="M32">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1926,21 +1884,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K33">
-        <v>0.4571428571428571</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="L33">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="M33">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1952,21 +1910,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>19</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K34">
-        <v>0.4319066147859922</v>
+        <v>0.4240196078431372</v>
       </c>
       <c r="L34">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="M34">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1978,21 +1936,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>146</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K35">
-        <v>0.4285714285714285</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="L35">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2004,21 +1962,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K36">
-        <v>0.4210526315789473</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="L36">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2030,21 +1988,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K37">
-        <v>0.4153846153846154</v>
+        <v>0.3780821917808219</v>
       </c>
       <c r="L37">
-        <v>27</v>
+        <v>276</v>
       </c>
       <c r="M37">
-        <v>27</v>
+        <v>276</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2056,21 +2014,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>38</v>
+        <v>454</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K38">
-        <v>0.4135338345864661</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="L38">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M38">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2082,21 +2040,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K39">
-        <v>0.392156862745098</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="L39">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="M39">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2108,21 +2066,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>248</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K40">
-        <v>0.3731138545953361</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="L40">
-        <v>272</v>
+        <v>18</v>
       </c>
       <c r="M40">
-        <v>273</v>
+        <v>18</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2131,24 +2089,24 @@
         <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>457</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K41">
-        <v>0.3673469387755102</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="L41">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M41">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2160,21 +2118,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K42">
-        <v>0.3673469387755102</v>
+        <v>0.3618677042801556</v>
       </c>
       <c r="L42">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="M42">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2186,21 +2144,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>31</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K43">
-        <v>0.3603603603603603</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="L43">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="M43">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2212,12 +2170,12 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>71</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K44">
         <v>0.3588516746411483</v>
@@ -2243,16 +2201,16 @@
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K45">
-        <v>0.3529411764705883</v>
+        <v>0.3458646616541353</v>
       </c>
       <c r="L45">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="M45">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2264,12 +2222,12 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>33</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K46">
         <v>0.345679012345679</v>
@@ -2295,16 +2253,16 @@
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K47">
-        <v>0.3243243243243243</v>
+        <v>0.3387096774193548</v>
       </c>
       <c r="L47">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M47">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2316,21 +2274,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>75</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K48">
-        <v>0.3225806451612903</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L48">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M48">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2342,21 +2300,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K49">
-        <v>0.3178807947019868</v>
+        <v>0.3289473684210527</v>
       </c>
       <c r="L49">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="M49">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2368,21 +2326,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>103</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K50">
-        <v>0.3164693218514532</v>
+        <v>0.3240043057050592</v>
       </c>
       <c r="L50">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="M50">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2394,21 +2352,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>635</v>
+        <v>628</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K51">
-        <v>0.3093525179856115</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="L51">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M51">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2420,21 +2378,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K52">
-        <v>0.297029702970297</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="L52">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M52">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2446,21 +2404,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>71</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K53">
-        <v>0.2894736842105263</v>
+        <v>0.2949640287769784</v>
       </c>
       <c r="L53">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="M53">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2472,47 +2430,47 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>54</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K54">
-        <v>0.2824133504492939</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L54">
-        <v>220</v>
+        <v>24</v>
       </c>
       <c r="M54">
-        <v>223</v>
+        <v>24</v>
       </c>
       <c r="N54">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>559</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K55">
-        <v>0.2738095238095238</v>
+        <v>0.2847682119205298</v>
       </c>
       <c r="L55">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="M55">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2524,21 +2482,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>61</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K56">
-        <v>0.2727272727272727</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="L56">
-        <v>15</v>
+        <v>203</v>
       </c>
       <c r="M56">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2547,24 +2505,24 @@
         <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>40</v>
+        <v>551</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K57">
-        <v>0.2701986754966887</v>
+        <v>0.261744966442953</v>
       </c>
       <c r="L57">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="M57">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2576,47 +2534,47 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>551</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K58">
-        <v>0.2539184952978056</v>
+        <v>0.2576923076923077</v>
       </c>
       <c r="L58">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="M58">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>238</v>
+        <v>579</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K59">
-        <v>0.2407407407407407</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="L59">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M59">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2628,21 +2586,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>82</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K60">
-        <v>0.2361111111111111</v>
+        <v>0.25</v>
       </c>
       <c r="L60">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M60">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2654,47 +2612,47 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K61">
-        <v>0.2352941176470588</v>
+        <v>0.2452830188679245</v>
       </c>
       <c r="L61">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="M61">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>52</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K62">
-        <v>0.2171052631578947</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="L62">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="M62">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2706,21 +2664,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>357</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K63">
-        <v>0.2153846153846154</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="L63">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M63">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2732,47 +2690,47 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>102</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K64">
-        <v>0.2147651006711409</v>
+        <v>0.2330623306233062</v>
       </c>
       <c r="L64">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="M64">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>117</v>
+        <v>283</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K65">
-        <v>0.2136752136752137</v>
+        <v>0.2290076335877863</v>
       </c>
       <c r="L65">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M65">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2784,21 +2742,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K66">
-        <v>0.2083333333333333</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="L66">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M66">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2810,21 +2768,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K67">
-        <v>0.2065217391304348</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L67">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M67">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2836,73 +2794,73 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K68">
+        <v>0.2097560975609756</v>
+      </c>
+      <c r="L68">
+        <v>86</v>
+      </c>
+      <c r="M68">
         <v>87</v>
       </c>
-      <c r="K68">
-        <v>0.2053571428571428</v>
-      </c>
-      <c r="L68">
-        <v>23</v>
-      </c>
-      <c r="M68">
-        <v>24</v>
-      </c>
       <c r="N68">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O68">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>89</v>
+        <v>324</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K69">
-        <v>0.2</v>
+        <v>0.2065217391304348</v>
       </c>
       <c r="L69">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="M69">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="N69">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>296</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K70">
-        <v>0.2</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="L70">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="M70">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2914,21 +2872,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>80</v>
+        <v>231</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K71">
-        <v>0.1925925925925926</v>
+        <v>0.2052505966587112</v>
       </c>
       <c r="L71">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="M71">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2940,73 +2898,73 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>218</v>
+        <v>333</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K72">
-        <v>0.192090395480226</v>
+        <v>0.2043956043956044</v>
       </c>
       <c r="L72">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="M72">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>143</v>
+        <v>362</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K73">
-        <v>0.1890756302521008</v>
+        <v>0.2024539877300613</v>
       </c>
       <c r="L73">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="M73">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
-        <v>193</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K74">
-        <v>0.186046511627907</v>
+        <v>0.2015503875968992</v>
       </c>
       <c r="L74">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M74">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -3018,47 +2976,47 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K75">
-        <v>0.1842105263157895</v>
+        <v>0.1948051948051948</v>
       </c>
       <c r="L75">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="M75">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="N75">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>341</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K76">
-        <v>0.1840909090909091</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="L76">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="M76">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -3070,21 +3028,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>359</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K77">
-        <v>0.180327868852459</v>
+        <v>0.1834862385321101</v>
       </c>
       <c r="L77">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M77">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3096,21 +3054,21 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K78">
-        <v>0.1752577319587629</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="L78">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="M78">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3122,21 +3080,21 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>240</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K79">
-        <v>0.1751824817518248</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="L79">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="M79">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3148,21 +3106,21 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>339</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K80">
-        <v>0.1707317073170732</v>
+        <v>0.1772727272727273</v>
       </c>
       <c r="L80">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="M80">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3174,21 +3132,21 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>136</v>
+        <v>362</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K81">
-        <v>0.1679389312977099</v>
+        <v>0.1709401709401709</v>
       </c>
       <c r="L81">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M81">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3200,21 +3158,21 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K82">
-        <v>0.1666666666666667</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="L82">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M82">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3226,21 +3184,21 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K83">
-        <v>0.1651376146788991</v>
+        <v>0.1625615763546798</v>
       </c>
       <c r="L83">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M83">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3252,73 +3210,73 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>91</v>
+        <v>170</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K84">
-        <v>0.1623376623376623</v>
+        <v>0.1607142857142857</v>
       </c>
       <c r="L84">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M84">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84">
-        <v>129</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K85">
-        <v>0.1539568345323741</v>
+        <v>0.1595092024539877</v>
       </c>
       <c r="L85">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="M85">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="N85">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O85">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q85">
-        <v>588</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K86">
-        <v>0.1523809523809524</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="L86">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M86">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3330,21 +3288,21 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K87">
         <v>0.1515151515151515</v>
       </c>
       <c r="L87">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M87">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3356,21 +3314,21 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>84</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K88">
-        <v>0.1439114391143911</v>
+        <v>0.15</v>
       </c>
       <c r="L88">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="M88">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3382,47 +3340,47 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>232</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K89">
-        <v>0.1402439024390244</v>
+        <v>0.1474358974358974</v>
       </c>
       <c r="L89">
         <v>23</v>
       </c>
       <c r="M89">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N89">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O89">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K90">
-        <v>0.1330645161290323</v>
+        <v>0.1439114391143911</v>
       </c>
       <c r="L90">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M90">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3434,21 +3392,21 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>215</v>
+        <v>232</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K91">
-        <v>0.1288343558282209</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L91">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M91">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3460,125 +3418,125 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>142</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K92">
-        <v>0.126984126984127</v>
+        <v>0.1412639405204461</v>
       </c>
       <c r="L92">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="M92">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O92">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q92">
-        <v>110</v>
+        <v>231</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K93">
-        <v>0.1241830065359477</v>
+        <v>0.1328671328671329</v>
       </c>
       <c r="L93">
         <v>19</v>
       </c>
       <c r="M93">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O93">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q93">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K94">
-        <v>0.1229508196721311</v>
+        <v>0.132183908045977</v>
       </c>
       <c r="L94">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="M94">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="N94">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O94">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q94">
-        <v>321</v>
+        <v>604</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K95">
-        <v>0.1194029850746269</v>
+        <v>0.130718954248366</v>
       </c>
       <c r="L95">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M95">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N95">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O95">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95">
-        <v>177</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K96">
-        <v>0.1180555555555556</v>
+        <v>0.1242937853107345</v>
       </c>
       <c r="L96">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M96">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3590,21 +3548,21 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>127</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K97">
-        <v>0.1176470588235294</v>
+        <v>0.1241830065359477</v>
       </c>
       <c r="L97">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M97">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -3616,73 +3574,73 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K98">
-        <v>0.1105769230769231</v>
+        <v>0.1226591760299625</v>
       </c>
       <c r="L98">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="M98">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="N98">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O98">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q98">
-        <v>185</v>
+        <v>937</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K99">
-        <v>0.1076779026217228</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="L99">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="M99">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="N99">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O99">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>953</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K100">
-        <v>0.1071428571428571</v>
+        <v>0.1088709677419355</v>
       </c>
       <c r="L100">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M100">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -3694,47 +3652,47 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>125</v>
+        <v>221</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K101">
-        <v>0.1023017902813299</v>
+        <v>0.1040609137055838</v>
       </c>
       <c r="L101">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M101">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N101">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O101">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q101">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K102">
-        <v>0.08108108108108109</v>
+        <v>0.1010928961748634</v>
       </c>
       <c r="L102">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M102">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -3746,319 +3704,397 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>170</v>
+        <v>329</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K103">
-        <v>0.08088235294117647</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="L103">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M103">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N103">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="O103">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="P103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q103">
-        <v>250</v>
+        <v>156</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K104">
-        <v>0.07766990291262135</v>
+        <v>0.09134615384615384</v>
       </c>
       <c r="L104">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M104">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N104">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O104">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q104">
-        <v>380</v>
+        <v>189</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K105">
-        <v>0.07692307692307693</v>
+        <v>0.0872093023255814</v>
       </c>
       <c r="L105">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M105">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="N105">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="O105">
-        <v>0.03000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="P105" t="b">
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>336</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K106">
-        <v>0.07393715341959335</v>
+        <v>0.08455882352941177</v>
       </c>
       <c r="L106">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="M106">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="N106">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O106">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q106">
-        <v>501</v>
+        <v>249</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K107">
-        <v>0.07248908296943231</v>
+        <v>0.08121827411167512</v>
       </c>
       <c r="L107">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="M107">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="N107">
-        <v>0.87</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O107">
-        <v>0.13</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P107" t="b">
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>1062</v>
+        <v>181</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K108">
-        <v>0.0674373795761079</v>
+        <v>0.08048780487804878</v>
       </c>
       <c r="L108">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M108">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N108">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="O108">
-        <v>0.07999999999999996</v>
+        <v>0.11</v>
       </c>
       <c r="P108" t="b">
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>484</v>
+        <v>377</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K109">
-        <v>0.06484641638225255</v>
+        <v>0.07853403141361257</v>
       </c>
       <c r="L109">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="M109">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="N109">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="O109">
-        <v>0.24</v>
+        <v>0.11</v>
       </c>
       <c r="P109" t="b">
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>274</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K110">
-        <v>0.06104651162790697</v>
+        <v>0.07531380753138076</v>
       </c>
       <c r="L110">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M110">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N110">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O110">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q110">
-        <v>323</v>
+        <v>221</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="K111">
-        <v>0.04775280898876404</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L111">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="M111">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="N111">
-        <v>0.53</v>
+        <v>0.9</v>
       </c>
       <c r="O111">
-        <v>0.47</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P111" t="b">
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>339</v>
+        <v>481</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K112">
-        <v>0.04571428571428571</v>
+        <v>0.06111111111111111</v>
       </c>
       <c r="L112">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M112">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="N112">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O112">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P112" t="b">
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>334</v>
+        <v>507</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K113">
-        <v>0.04105960264900662</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="L113">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M113">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="N113">
-        <v>0.72</v>
+        <v>0.92</v>
       </c>
       <c r="O113">
-        <v>0.28</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P113" t="b">
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>724</v>
+        <v>341</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K114">
+        <v>0.05797101449275362</v>
+      </c>
+      <c r="L114">
+        <v>20</v>
+      </c>
+      <c r="M114">
+        <v>20</v>
+      </c>
+      <c r="N114">
+        <v>1</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="115" spans="10:17">
+      <c r="J115" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="K114">
-        <v>0.02489626556016597</v>
-      </c>
-      <c r="L114">
-        <v>18</v>
-      </c>
-      <c r="M114">
-        <v>30</v>
-      </c>
-      <c r="N114">
-        <v>0.6</v>
-      </c>
-      <c r="O114">
-        <v>0.4</v>
-      </c>
-      <c r="P114" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q114">
-        <v>705</v>
+      <c r="K115">
+        <v>0.05423728813559322</v>
+      </c>
+      <c r="L115">
+        <v>16</v>
+      </c>
+      <c r="M115">
+        <v>20</v>
+      </c>
+      <c r="N115">
+        <v>0.8</v>
+      </c>
+      <c r="O115">
+        <v>0.2</v>
+      </c>
+      <c r="P115" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q115">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="116" spans="10:17">
+      <c r="J116" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K116">
+        <v>0.04419889502762431</v>
+      </c>
+      <c r="L116">
+        <v>16</v>
+      </c>
+      <c r="M116">
+        <v>25</v>
+      </c>
+      <c r="N116">
+        <v>0.64</v>
+      </c>
+      <c r="O116">
+        <v>0.36</v>
+      </c>
+      <c r="P116" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q116">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="117" spans="10:17">
+      <c r="J117" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K117">
+        <v>0.03571428571428571</v>
+      </c>
+      <c r="L117">
+        <v>27</v>
+      </c>
+      <c r="M117">
+        <v>38</v>
+      </c>
+      <c r="N117">
+        <v>0.71</v>
+      </c>
+      <c r="O117">
+        <v>0.29</v>
+      </c>
+      <c r="P117" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q117">
+        <v>729</v>
       </c>
     </row>
   </sheetData>
